--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>646.9946178343823</v>
+        <v>412.7360536159715</v>
       </c>
       <c r="R2">
-        <v>5822.95156050944</v>
+        <v>3714.624482543744</v>
       </c>
       <c r="S2">
-        <v>0.0004783706824084861</v>
+        <v>0.0003437998162763576</v>
       </c>
       <c r="T2">
-        <v>0.0004783706824084862</v>
+        <v>0.0003437998162763576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>1737.314177108329</v>
+        <v>2167.295152528143</v>
       </c>
       <c r="R3">
-        <v>15635.82759397496</v>
+        <v>19505.65637275328</v>
       </c>
       <c r="S3">
-        <v>0.001284524083435249</v>
+        <v>0.001805307941305039</v>
       </c>
       <c r="T3">
-        <v>0.001284524083435249</v>
+        <v>0.001805307941305039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>786.6131332194061</v>
+        <v>1080.653192942563</v>
       </c>
       <c r="R4">
-        <v>7079.518198974654</v>
+        <v>9725.878736483071</v>
       </c>
       <c r="S4">
-        <v>0.0005816009143772632</v>
+        <v>0.0009001597169357041</v>
       </c>
       <c r="T4">
-        <v>0.0005816009143772632</v>
+        <v>0.0009001597169357041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>2485.080633317639</v>
+        <v>2565.947337778859</v>
       </c>
       <c r="R5">
-        <v>22365.72569985875</v>
+        <v>23093.52604000972</v>
       </c>
       <c r="S5">
-        <v>0.001837402793827534</v>
+        <v>0.002137376213137886</v>
       </c>
       <c r="T5">
-        <v>0.001837402793827534</v>
+        <v>0.002137376213137885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>153086.5583095555</v>
+        <v>78283.29602489187</v>
       </c>
       <c r="R6">
-        <v>1377779.024786</v>
+        <v>704549.6642240268</v>
       </c>
       <c r="S6">
-        <v>0.1131881461568117</v>
+        <v>0.0652082185577792</v>
       </c>
       <c r="T6">
-        <v>0.1131881461568117</v>
+        <v>0.06520821855777918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>411069.0270749547</v>
@@ -883,10 +883,10 @@
         <v>3699621.243674592</v>
       </c>
       <c r="S7">
-        <v>0.303933549952923</v>
+        <v>0.3424112207962481</v>
       </c>
       <c r="T7">
-        <v>0.303933549952923</v>
+        <v>0.342411220796248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>186121.945942493</v>
+        <v>204966.5714012963</v>
       </c>
       <c r="R8">
-        <v>1675097.513482436</v>
+        <v>1844699.142611667</v>
       </c>
       <c r="S8">
-        <v>0.1376136367095668</v>
+        <v>0.1707325274184231</v>
       </c>
       <c r="T8">
-        <v>0.1376136367095668</v>
+        <v>0.1707325274184231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>587999.3910145803</v>
+        <v>486681.0477732701</v>
       </c>
       <c r="R9">
-        <v>5291994.519131223</v>
+        <v>4380129.42995943</v>
       </c>
       <c r="S9">
-        <v>0.4347511744022289</v>
+        <v>0.4053943273037117</v>
       </c>
       <c r="T9">
-        <v>0.434751174402229</v>
+        <v>0.4053943273037117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>893.8040077259379</v>
+        <v>834.4919261642381</v>
       </c>
       <c r="R10">
-        <v>8044.236069533441</v>
+        <v>7510.427335478144</v>
       </c>
       <c r="S10">
-        <v>0.0006608550076451268</v>
+        <v>0.0006951129381256138</v>
       </c>
       <c r="T10">
-        <v>0.000660855007645127</v>
+        <v>0.0006951129381256138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>2400.048364198301</v>
+        <v>4381.953770586809</v>
       </c>
       <c r="R11">
-        <v>21600.43527778471</v>
+        <v>39437.58393528128</v>
       </c>
       <c r="S11">
-        <v>0.001774532186431273</v>
+        <v>0.00365006858029652</v>
       </c>
       <c r="T11">
-        <v>0.001774532186431273</v>
+        <v>0.00365006858029652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>1086.682874356362</v>
+        <v>2184.92268023003</v>
       </c>
       <c r="R12">
-        <v>9780.145869207254</v>
+        <v>19664.30412207027</v>
       </c>
       <c r="S12">
-        <v>0.0008034645325295979</v>
+        <v>0.001819991273987563</v>
       </c>
       <c r="T12">
-        <v>0.0008034645325295979</v>
+        <v>0.001819991273987563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>3433.065698469217</v>
+        <v>5187.970175078058</v>
       </c>
       <c r="R13">
-        <v>30897.59128622295</v>
+        <v>46691.73157570252</v>
       </c>
       <c r="S13">
-        <v>0.002538317840149754</v>
+        <v>0.004321462051625429</v>
       </c>
       <c r="T13">
-        <v>0.002538317840149755</v>
+        <v>0.004321462051625429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>85.77678857813336</v>
+        <v>46.18850371693677</v>
       </c>
       <c r="R14">
-        <v>771.9910972032003</v>
+        <v>415.696533452431</v>
       </c>
       <c r="S14">
-        <v>6.342108536277459E-05</v>
+        <v>3.847398101726734E-05</v>
       </c>
       <c r="T14">
-        <v>6.34210853627746E-05</v>
+        <v>3.847398101726734E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>230.3283933990334</v>
+        <v>242.5378624698161</v>
       </c>
       <c r="R15">
-        <v>2072.955540591301</v>
+        <v>2182.840762228345</v>
       </c>
       <c r="S15">
-        <v>0.0001702987129895265</v>
+        <v>0.0002020285648095284</v>
       </c>
       <c r="T15">
-        <v>0.0001702987129895265</v>
+        <v>0.0002020285648095283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>104.2870320108533</v>
+        <v>120.9338355146198</v>
       </c>
       <c r="R16">
-        <v>938.58328809768</v>
+        <v>1088.404519631578</v>
       </c>
       <c r="S16">
-        <v>7.710706904544581E-05</v>
+        <v>0.0001007351552336319</v>
       </c>
       <c r="T16">
-        <v>7.710706904544581E-05</v>
+        <v>0.0001007351552336319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>329.4652385165067</v>
+        <v>287.1502673685413</v>
       </c>
       <c r="R17">
-        <v>2965.18714664856</v>
+        <v>2584.352406316872</v>
       </c>
       <c r="S17">
-        <v>0.0002435978702675391</v>
+        <v>0.0002391896910873386</v>
       </c>
       <c r="T17">
-        <v>0.0002435978702675392</v>
+        <v>0.0002391896910873386</v>
       </c>
     </row>
   </sheetData>
